--- a/Talleres/Matriz_IREB_G3_V3.xlsx
+++ b/Talleres/Matriz_IREB_G3_V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronny\OneDrive\Documents\Repositorio Analisis\_23305_G3_ADS\Talleres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816F79E6-42D8-432B-A9FD-784C66CDC205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F4D0FE-C975-41A2-9D69-E99260E6D8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz Ckeck LIst" sheetId="1" r:id="rId1"/>
@@ -1692,19 +1692,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1715,25 +1728,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1743,10 +1747,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6040,8 +6040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showGridLines="0" topLeftCell="F17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6071,104 +6071,104 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="2:11" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
     </row>
     <row r="6" spans="2:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="52" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="50" t="s">
         <v>70</v>
       </c>
       <c r="G7" s="4">
         <v>100</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="55"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="62"/>
     </row>
     <row r="9" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="61"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6" t="s">
         <v>7</v>
       </c>
@@ -6195,10 +6195,10 @@
       <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="61"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
@@ -6222,10 +6222,10 @@
       <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="61"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
@@ -6249,10 +6249,10 @@
       <c r="B12" s="5">
         <v>4</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="61"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="6" t="s">
         <v>7</v>
       </c>
@@ -6276,10 +6276,10 @@
       <c r="B13" s="5">
         <v>5</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="61"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="6" t="s">
         <v>7</v>
       </c>
@@ -6303,10 +6303,10 @@
       <c r="B14" s="5">
         <v>6</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="61"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="6" t="s">
         <v>7</v>
       </c>
@@ -6330,10 +6330,10 @@
       <c r="B15" s="5">
         <v>7</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="61"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6" t="s">
         <v>7</v>
       </c>
@@ -6357,10 +6357,10 @@
       <c r="B16" s="5">
         <v>8</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="6" t="s">
         <v>7</v>
       </c>
@@ -6384,10 +6384,10 @@
       <c r="B17" s="5">
         <v>9</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="61"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="6" t="s">
         <v>7</v>
       </c>
@@ -6411,10 +6411,10 @@
       <c r="B18" s="5">
         <v>10</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="61"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="11" t="s">
         <v>17</v>
       </c>
@@ -6438,10 +6438,10 @@
       <c r="B19" s="5">
         <v>11</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="61"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="6" t="s">
         <v>7</v>
       </c>
@@ -9384,6 +9384,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="C3:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -9394,18 +9406,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C3:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
@@ -9439,10 +9439,10 @@
       <c r="B1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="50"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -9470,19 +9470,19 @@
       <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="68">
         <v>41932</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="15" t="s">
@@ -9501,12 +9501,12 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
@@ -9634,7 +9634,7 @@
       <c r="A17" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="28">
         <f>COUNTA('MODELO LISTA DE COMPROBACION'!$C$8:$C$16)</f>
         <v>7</v>
@@ -9648,7 +9648,7 @@
       <c r="A18" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="29">
         <f t="shared" ref="C18:D18" si="0">C17/9</f>
         <v>0.77777777777777779</v>
@@ -9665,12 +9665,12 @@
       <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
@@ -9750,7 +9750,7 @@
       <c r="A27" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="28">
         <f>COUNTA('MODELO LISTA DE COMPROBACION'!$C$22:$C$26)</f>
         <v>5</v>
@@ -9764,7 +9764,7 @@
       <c r="A28" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="29">
         <f t="shared" ref="C28:D28" si="1">C27/5</f>
         <v>1</v>
@@ -9781,12 +9781,12 @@
       <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
@@ -9842,7 +9842,7 @@
       <c r="A35" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="8">
         <f>COUNTA('MODELO LISTA DE COMPROBACION'!$C$32:$C$34)</f>
         <v>3</v>
@@ -9856,7 +9856,7 @@
       <c r="A36" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="29">
         <f t="shared" ref="C36:D36" si="2">C35/3</f>
         <v>1</v>
@@ -9870,11 +9870,11 @@
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="13" t="s">
@@ -9910,12 +9910,12 @@
       <c r="C45" s="28"/>
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
@@ -10043,7 +10043,7 @@
       <c r="A57" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="50"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="28">
         <f>COUNTA('MODELO LISTA DE COMPROBACION'!$C$8:$C$16)</f>
         <v>7</v>
@@ -10057,7 +10057,7 @@
       <c r="A58" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="50"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="29">
         <f t="shared" ref="C58:D58" si="3">C57/9</f>
         <v>0.77777777777777779</v>
@@ -10074,12 +10074,12 @@
       <c r="D59" s="28"/>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="68" t="s">
+      <c r="A60" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="36" t="s">
@@ -10159,7 +10159,7 @@
       <c r="A67" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B67" s="50"/>
+      <c r="B67" s="58"/>
       <c r="C67" s="28">
         <f>COUNTA('MODELO LISTA DE COMPROBACION'!$C$22:$C$26)</f>
         <v>5</v>
@@ -10173,7 +10173,7 @@
       <c r="A68" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="50"/>
+      <c r="B68" s="58"/>
       <c r="C68" s="29">
         <f t="shared" ref="C68:D68" si="4">C67/5</f>
         <v>1</v>
@@ -10190,12 +10190,12 @@
       <c r="D69" s="28"/>
     </row>
     <row r="70" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="68" t="s">
+      <c r="A70" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
     </row>
     <row r="71" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="30" t="s">
@@ -10251,7 +10251,7 @@
       <c r="A75" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B75" s="50"/>
+      <c r="B75" s="58"/>
       <c r="C75" s="8">
         <f>COUNTA('MODELO LISTA DE COMPROBACION'!$C$32:$C$34)</f>
         <v>3</v>
@@ -10265,7 +10265,7 @@
       <c r="A76" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B76" s="50"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="29">
         <f t="shared" ref="C76:D76" si="5">C75/3</f>
         <v>1</v>
@@ -10279,11 +10279,11 @@
     <row r="78" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="79" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="80" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="64" t="s">
+      <c r="A80" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="58"/>
     </row>
     <row r="81" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="13" t="s">
@@ -10314,12 +10314,12 @@
     </row>
     <row r="84" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="85" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="68" t="s">
+      <c r="A85" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="50"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
     </row>
     <row r="86" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="16" t="s">
@@ -10447,7 +10447,7 @@
       <c r="A96" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B96" s="50"/>
+      <c r="B96" s="58"/>
       <c r="C96" s="28">
         <f>COUNTA('MODELO LISTA DE COMPROBACION'!$C$8:$C$16)</f>
         <v>7</v>
@@ -10461,7 +10461,7 @@
       <c r="A97" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="50"/>
+      <c r="B97" s="58"/>
       <c r="C97" s="29">
         <f t="shared" ref="C97:D97" si="6">C96/9</f>
         <v>0.77777777777777779</v>
@@ -10478,12 +10478,12 @@
       <c r="D98" s="28"/>
     </row>
     <row r="99" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="68" t="s">
+      <c r="A99" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B99" s="69"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
     </row>
     <row r="100" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="36" t="s">
@@ -10563,7 +10563,7 @@
       <c r="A106" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B106" s="50"/>
+      <c r="B106" s="58"/>
       <c r="C106" s="28">
         <f>COUNTA('MODELO LISTA DE COMPROBACION'!$C$22:$C$26)</f>
         <v>5</v>
@@ -10577,7 +10577,7 @@
       <c r="A107" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B107" s="50"/>
+      <c r="B107" s="58"/>
       <c r="C107" s="29">
         <f t="shared" ref="C107:D107" si="7">C106/5</f>
         <v>1</v>
@@ -10594,12 +10594,12 @@
       <c r="D108" s="28"/>
     </row>
     <row r="109" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="68" t="s">
+      <c r="A109" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B109" s="50"/>
-      <c r="C109" s="50"/>
-      <c r="D109" s="50"/>
+      <c r="B109" s="58"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="58"/>
     </row>
     <row r="110" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="30" t="s">
@@ -10655,7 +10655,7 @@
       <c r="A114" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B114" s="50"/>
+      <c r="B114" s="58"/>
       <c r="C114" s="8">
         <f>COUNTA('MODELO LISTA DE COMPROBACION'!$C$32:$C$34)</f>
         <v>3</v>
@@ -10669,7 +10669,7 @@
       <c r="A115" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B115" s="50"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="29">
         <f t="shared" ref="C115:D115" si="8">C114/3</f>
         <v>1</v>
@@ -10683,11 +10683,11 @@
     <row r="117" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="118" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="119" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="64" t="s">
+      <c r="A119" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B119" s="50"/>
-      <c r="C119" s="50"/>
+      <c r="B119" s="58"/>
+      <c r="C119" s="58"/>
     </row>
     <row r="120" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="13" t="s">
@@ -11593,26 +11593,6 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="C1:D1"/>
@@ -11627,6 +11607,26 @@
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A119:C119"/>
   </mergeCells>
   <conditionalFormatting sqref="A32:D34">
     <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="X">
@@ -11746,8 +11746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11765,7 +11765,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>32</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
